--- a/Documentacao/EspecificacaoClasse/Especificação de Classe- Pagamento.xlsx
+++ b/Documentacao/EspecificacaoClasse/Especificação de Classe- Pagamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fivestars\Documentacao\EspecificacaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D33DA36-9420-4A62-A6CC-B0B9A42B9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD44B48-172C-4DAD-94CA-E389014C3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>ESPECIFICAÇÃO DE CLASSE</t>
   </si>
@@ -162,6 +162,9 @@
       </rPr>
       <t>Fornece dados para as classes Carrinho e Venda</t>
     </r>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -295,30 +298,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,8 +328,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -565,54 +565,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -621,105 +621,109 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+    <row r="8" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>999999</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>20</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+    <row r="11" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>30</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
